--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Enho</t>
   </si>
   <si>
     <t>Gpr19</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3061993333333333</v>
+        <v>0.05797933333333333</v>
       </c>
       <c r="H2">
-        <v>0.918598</v>
+        <v>0.173938</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.067464</v>
+        <v>0.7967356666666666</v>
       </c>
       <c r="N2">
-        <v>3.202392</v>
+        <v>2.390207</v>
       </c>
       <c r="O2">
-        <v>0.2083490508526757</v>
+        <v>0.1236782642167107</v>
       </c>
       <c r="P2">
-        <v>0.2083490508526757</v>
+        <v>0.1236782642167107</v>
       </c>
       <c r="Q2">
-        <v>0.3268567651573333</v>
+        <v>0.04619420279622222</v>
       </c>
       <c r="R2">
-        <v>2.941710886416</v>
+        <v>0.415747825166</v>
       </c>
       <c r="S2">
-        <v>0.2083490508526757</v>
+        <v>0.01568608358239925</v>
       </c>
       <c r="T2">
-        <v>0.2083490508526757</v>
+        <v>0.01568608358239925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3061993333333333</v>
+        <v>0.05797933333333333</v>
       </c>
       <c r="H3">
-        <v>0.918598</v>
+        <v>0.173938</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.210001</v>
       </c>
       <c r="O3">
-        <v>0.3389649872006585</v>
+        <v>0.2695849691040679</v>
       </c>
       <c r="P3">
-        <v>0.3389649872006585</v>
+        <v>0.2695849691040679</v>
       </c>
       <c r="Q3">
-        <v>0.531766277622</v>
+        <v>0.100690794882</v>
       </c>
       <c r="R3">
-        <v>4.785896498598</v>
+        <v>0.9062171539380001</v>
       </c>
       <c r="S3">
-        <v>0.3389649872006585</v>
+        <v>0.03419139478312284</v>
       </c>
       <c r="T3">
-        <v>0.3389649872006585</v>
+        <v>0.03419139478312283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3061993333333333</v>
+        <v>0.05797933333333333</v>
       </c>
       <c r="H4">
-        <v>0.918598</v>
+        <v>0.173938</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5368916666666667</v>
+        <v>1.149261</v>
       </c>
       <c r="N4">
-        <v>1.610675</v>
+        <v>3.447783</v>
       </c>
       <c r="O4">
-        <v>0.1047912333912068</v>
+        <v>0.1784012082785647</v>
       </c>
       <c r="P4">
-        <v>0.1047912333912068</v>
+        <v>0.1784012082785647</v>
       </c>
       <c r="Q4">
-        <v>0.1643958704055555</v>
+        <v>0.06663338660599999</v>
       </c>
       <c r="R4">
-        <v>1.47956283365</v>
+        <v>0.599700479454</v>
       </c>
       <c r="S4">
-        <v>0.1047912333912068</v>
+        <v>0.02262658100824541</v>
       </c>
       <c r="T4">
-        <v>0.1047912333912068</v>
+        <v>0.02262658100824541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3061993333333333</v>
+        <v>0.05797933333333333</v>
       </c>
       <c r="H5">
-        <v>0.918598</v>
+        <v>0.173938</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1268297520323692</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7723453333333333</v>
+        <v>1.188588666666667</v>
       </c>
       <c r="N5">
-        <v>2.317036</v>
+        <v>3.565766</v>
       </c>
       <c r="O5">
-        <v>0.1507473948821632</v>
+        <v>0.1845060906787419</v>
       </c>
       <c r="P5">
-        <v>0.1507473948821632</v>
+        <v>0.1845060906787419</v>
       </c>
       <c r="Q5">
-        <v>0.2364916261697778</v>
+        <v>0.06891357850088889</v>
       </c>
       <c r="R5">
-        <v>2.128424635528</v>
+        <v>0.6202222065080001</v>
       </c>
       <c r="S5">
-        <v>0.1507473948821632</v>
+        <v>0.02340086172924665</v>
       </c>
       <c r="T5">
-        <v>0.1507473948821632</v>
+        <v>0.02340086172924665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05797933333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.173938</v>
+      </c>
+      <c r="I6">
+        <v>0.1268297520323692</v>
+      </c>
+      <c r="J6">
+        <v>0.1268297520323692</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.57075</v>
+      </c>
+      <c r="N6">
+        <v>4.71225</v>
+      </c>
+      <c r="O6">
+        <v>0.2438294677219148</v>
+      </c>
+      <c r="P6">
+        <v>0.2438294677219148</v>
+      </c>
+      <c r="Q6">
+        <v>0.09107103783333334</v>
+      </c>
+      <c r="R6">
+        <v>0.8196393405000001</v>
+      </c>
+      <c r="S6">
+        <v>0.03092483092935502</v>
+      </c>
+      <c r="T6">
+        <v>0.03092483092935502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.3238283333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.971485</v>
+      </c>
+      <c r="I7">
+        <v>0.7083742577997112</v>
+      </c>
+      <c r="J7">
+        <v>0.7083742577997111</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7967356666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.390207</v>
+      </c>
+      <c r="O7">
+        <v>0.1236782642167107</v>
+      </c>
+      <c r="P7">
+        <v>0.1236782642167107</v>
+      </c>
+      <c r="Q7">
+        <v>0.2580055830438889</v>
+      </c>
+      <c r="R7">
+        <v>2.322050247395</v>
+      </c>
+      <c r="S7">
+        <v>0.08761049862046899</v>
+      </c>
+      <c r="T7">
+        <v>0.08761049862046898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.3238283333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.971485</v>
+      </c>
+      <c r="I8">
+        <v>0.7083742577997112</v>
+      </c>
+      <c r="J8">
+        <v>0.7083742577997111</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.736667</v>
+      </c>
+      <c r="N8">
+        <v>5.210001</v>
+      </c>
+      <c r="O8">
+        <v>0.2695849691040679</v>
+      </c>
+      <c r="P8">
+        <v>0.2695849691040679</v>
+      </c>
+      <c r="Q8">
+        <v>0.562381980165</v>
+      </c>
+      <c r="R8">
+        <v>5.061437821485001</v>
+      </c>
+      <c r="S8">
+        <v>0.1909670524030521</v>
+      </c>
+      <c r="T8">
+        <v>0.1909670524030521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.3238283333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.971485</v>
+      </c>
+      <c r="I9">
+        <v>0.7083742577997112</v>
+      </c>
+      <c r="J9">
+        <v>0.7083742577997111</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.149261</v>
+      </c>
+      <c r="N9">
+        <v>3.447783</v>
+      </c>
+      <c r="O9">
+        <v>0.1784012082785647</v>
+      </c>
+      <c r="P9">
+        <v>0.1784012082785647</v>
+      </c>
+      <c r="Q9">
+        <v>0.3721632741949999</v>
+      </c>
+      <c r="R9">
+        <v>3.349469467755</v>
+      </c>
+      <c r="S9">
+        <v>0.1263748235049</v>
+      </c>
+      <c r="T9">
+        <v>0.1263748235049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3238283333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.971485</v>
+      </c>
+      <c r="I10">
+        <v>0.7083742577997112</v>
+      </c>
+      <c r="J10">
+        <v>0.7083742577997111</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.188588666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.565766</v>
+      </c>
+      <c r="O10">
+        <v>0.1845060906787419</v>
+      </c>
+      <c r="P10">
+        <v>0.1845060906787419</v>
+      </c>
+      <c r="Q10">
+        <v>0.3848986869455556</v>
+      </c>
+      <c r="R10">
+        <v>3.46408818251</v>
+      </c>
+      <c r="S10">
+        <v>0.13069936504408</v>
+      </c>
+      <c r="T10">
+        <v>0.1306993650440799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.3238283333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.971485</v>
+      </c>
+      <c r="I11">
+        <v>0.7083742577997112</v>
+      </c>
+      <c r="J11">
+        <v>0.7083742577997111</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.57075</v>
+      </c>
+      <c r="N11">
+        <v>4.71225</v>
+      </c>
+      <c r="O11">
+        <v>0.2438294677219148</v>
+      </c>
+      <c r="P11">
+        <v>0.2438294677219148</v>
+      </c>
+      <c r="Q11">
+        <v>0.5086533545833334</v>
+      </c>
+      <c r="R11">
+        <v>4.57788019125</v>
+      </c>
+      <c r="S11">
+        <v>0.17272251822721</v>
+      </c>
+      <c r="T11">
+        <v>0.17272251822721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07533533333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.226006</v>
+      </c>
+      <c r="I12">
+        <v>0.1647959901679198</v>
+      </c>
+      <c r="J12">
+        <v>0.1647959901679197</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7967356666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.390207</v>
+      </c>
+      <c r="O12">
+        <v>0.1236782642167107</v>
+      </c>
+      <c r="P12">
+        <v>0.1236782642167107</v>
+      </c>
+      <c r="Q12">
+        <v>0.06002234702688889</v>
+      </c>
+      <c r="R12">
+        <v>0.540201123242</v>
+      </c>
+      <c r="S12">
+        <v>0.02038168201384243</v>
+      </c>
+      <c r="T12">
+        <v>0.02038168201384243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07533533333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.226006</v>
+      </c>
+      <c r="I13">
+        <v>0.1647959901679198</v>
+      </c>
+      <c r="J13">
+        <v>0.1647959901679197</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.736667</v>
+      </c>
+      <c r="N13">
+        <v>5.210001</v>
+      </c>
+      <c r="O13">
+        <v>0.2695849691040679</v>
+      </c>
+      <c r="P13">
+        <v>0.2695849691040679</v>
+      </c>
+      <c r="Q13">
+        <v>0.130832387334</v>
+      </c>
+      <c r="R13">
+        <v>1.177491486006</v>
+      </c>
+      <c r="S13">
+        <v>0.04442652191789292</v>
+      </c>
+      <c r="T13">
+        <v>0.04442652191789292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07533533333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.226006</v>
+      </c>
+      <c r="I14">
+        <v>0.1647959901679198</v>
+      </c>
+      <c r="J14">
+        <v>0.1647959901679197</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.3061993333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.918598</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.010072666666667</v>
-      </c>
-      <c r="N6">
-        <v>3.030218</v>
-      </c>
-      <c r="O6">
-        <v>0.1971473336732958</v>
-      </c>
-      <c r="P6">
-        <v>0.1971473336732958</v>
-      </c>
-      <c r="Q6">
-        <v>0.3092835771515555</v>
-      </c>
-      <c r="R6">
-        <v>2.783552194364</v>
-      </c>
-      <c r="S6">
-        <v>0.1971473336732958</v>
-      </c>
-      <c r="T6">
-        <v>0.1971473336732958</v>
+      <c r="M14">
+        <v>1.149261</v>
+      </c>
+      <c r="N14">
+        <v>3.447783</v>
+      </c>
+      <c r="O14">
+        <v>0.1784012082785647</v>
+      </c>
+      <c r="P14">
+        <v>0.1784012082785647</v>
+      </c>
+      <c r="Q14">
+        <v>0.086579960522</v>
+      </c>
+      <c r="R14">
+        <v>0.779219644698</v>
+      </c>
+      <c r="S14">
+        <v>0.02939980376541936</v>
+      </c>
+      <c r="T14">
+        <v>0.02939980376541936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07533533333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.226006</v>
+      </c>
+      <c r="I15">
+        <v>0.1647959901679198</v>
+      </c>
+      <c r="J15">
+        <v>0.1647959901679197</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.188588666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.565766</v>
+      </c>
+      <c r="O15">
+        <v>0.1845060906787419</v>
+      </c>
+      <c r="P15">
+        <v>0.1845060906787419</v>
+      </c>
+      <c r="Q15">
+        <v>0.08954272339955556</v>
+      </c>
+      <c r="R15">
+        <v>0.8058845105960001</v>
+      </c>
+      <c r="S15">
+        <v>0.03040586390541525</v>
+      </c>
+      <c r="T15">
+        <v>0.03040586390541525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07533533333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.226006</v>
+      </c>
+      <c r="I16">
+        <v>0.1647959901679198</v>
+      </c>
+      <c r="J16">
+        <v>0.1647959901679197</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.57075</v>
+      </c>
+      <c r="N16">
+        <v>4.71225</v>
+      </c>
+      <c r="O16">
+        <v>0.2438294677219148</v>
+      </c>
+      <c r="P16">
+        <v>0.2438294677219148</v>
+      </c>
+      <c r="Q16">
+        <v>0.1183329748333333</v>
+      </c>
+      <c r="R16">
+        <v>1.0649967735</v>
+      </c>
+      <c r="S16">
+        <v>0.04018211856534978</v>
+      </c>
+      <c r="T16">
+        <v>0.04018211856534978</v>
       </c>
     </row>
   </sheetData>
